--- a/legacy/demos/cbm/my_translations.xlsx
+++ b/legacy/demos/cbm/my_translations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\mirte\Presentations\JASMIN\demos\cbm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\GitHubs\JASMIN\trunk\legacy\demos\cbm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -38,9 +41,6 @@
     <t>translation_term_name</t>
   </si>
   <si>
-    <t>translation_value</t>
-  </si>
-  <si>
     <t>task_invalid_key</t>
   </si>
   <si>
@@ -53,9 +53,6 @@
     <t>task_too_slow</t>
   </si>
   <si>
-    <t>translation_dutch</t>
-  </si>
-  <si>
     <t>You've pressed an invalid key.</t>
   </si>
   <si>
@@ -686,9 +683,6 @@
     <t>Er verschijnen dadelijk plaatjes. Elk plaatje is naar links gedraaid (tegen de klok in) of naar rechts gedraaid (met de klok mee).&lt;br&gt;&lt;br&gt;#[gaat_keys]</t>
   </si>
   <si>
-    <t>translation_english</t>
-  </si>
-  <si>
     <t>#[stroop_keys]&lt;br&gt;&lt;br&gt;Place your left index and middle finger on the "D" and "V" keys, and your right index and middle finger on the "N" and "K" keys.</t>
   </si>
   <si>
@@ -882,6 +876,15 @@
   </si>
   <si>
     <t>schaap</t>
+  </si>
+  <si>
+    <t>translation_en</t>
+  </si>
+  <si>
+    <t>translation_it</t>
+  </si>
+  <si>
+    <t>translation_nl</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1034,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1331,7 +1362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1361,1360 +1394,1360 @@
         <v>4</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>5</v>
+        <v>285</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F16" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F27" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>164</v>
-      </c>
       <c r="H38" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F39" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>165</v>
-      </c>
       <c r="H39" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="C44" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="E46" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H50" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F52" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H52" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="C53" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H53" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H54" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H56" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="C58" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F58" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H58" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="C59" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F59" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H59" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="C60" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F60" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H60" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H61" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="E62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F62" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H62" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="E63" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H63" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="E64" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H65" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="E66" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="E67" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H67" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="E68" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="E69" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H69" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="E70" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H70" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="E71" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F71" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H71" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="E72" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H72" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="E73" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F76" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H76" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="E77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H77" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="E78" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H78" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="E79" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F79" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H79" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
